--- a/Daily Activits.xlsx
+++ b/Daily Activits.xlsx
@@ -94,9 +94,6 @@
     <t>July 3 2017</t>
   </si>
   <si>
-    <t>Transfored data from FieldBook to AWS EC2 (MongoDB)</t>
-  </si>
-  <si>
     <t>DAILY</t>
   </si>
   <si>
@@ -1060,21 +1057,9 @@
     <t>Febuary 17 2018</t>
   </si>
   <si>
-    <t>Improving the profermence.</t>
-  </si>
-  <si>
     <t>Febuary 18 2018</t>
   </si>
   <si>
-    <t>Improving the profermence. Switched to http2</t>
-  </si>
-  <si>
-    <t>Improving the profermence. Reduced images' size.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Improving the profermence. Cleared and maked css files loading asynchronous. </t>
-  </si>
-  <si>
     <t>Febuary 19 2018</t>
   </si>
   <si>
@@ -1094,6 +1079,21 @@
   </si>
   <si>
     <t xml:space="preserve">Changed dynamic import library from react-loadable to react-imported-component inorder to use react-hot-loader in the development enviroment. </t>
+  </si>
+  <si>
+    <t>Transferred data from FieldBook to AWS EC2 (MongoDB)</t>
+  </si>
+  <si>
+    <t>Improving the performance.</t>
+  </si>
+  <si>
+    <t>Improving the performance. Reduced images' size.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improving the performance. Cleared and maked css files loading asynchronous. </t>
+  </si>
+  <si>
+    <t>Improving the performance. Switched to http2</t>
   </si>
 </sst>
 </file>
@@ -11873,8 +11873,8 @@
   </sheetPr>
   <dimension ref="B1:F328"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D304" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F317" sqref="F317"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A311" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F310" sqref="F310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11889,10 +11889,10 @@
   <sheetData>
     <row r="1" spans="2:6" s="1" customFormat="1" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1"/>
@@ -11908,7 +11908,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>1</v>
@@ -12086,7 +12086,7 @@
         <v>0.10763888888888895</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>23</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12102,12 +12102,12 @@
         <v>6.25E-2</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2">
         <v>0.4375</v>
@@ -12120,7 +12120,7 @@
         <v>7.291666666666663E-2</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12136,7 +12136,7 @@
         <v>0.15416666666666667</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12152,12 +12152,12 @@
         <v>3.8194444444444531E-2</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2">
         <v>0.4375</v>
@@ -12170,7 +12170,7 @@
         <v>0.13194444444444442</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12186,7 +12186,7 @@
         <v>0.19444444444444442</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12202,12 +12202,12 @@
         <v>6.6666666666666763E-2</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2">
         <v>0.4375</v>
@@ -12220,7 +12220,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12236,7 +12236,7 @@
         <v>0.14097222222222228</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12252,7 +12252,7 @@
         <v>0.10069444444444442</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12267,12 +12267,12 @@
         <v>0.125</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="2">
         <v>0.44166666666666665</v>
@@ -12285,7 +12285,7 @@
         <v>5.8333333333333348E-2</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12301,12 +12301,12 @@
         <v>0.26875000000000004</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="2">
         <v>0.45833333333333331</v>
@@ -12319,12 +12319,12 @@
         <v>6.3888888888888939E-2</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="2">
         <v>2.0833333333333332E-2</v>
@@ -12337,7 +12337,7 @@
         <v>1.0243055555555556</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12353,7 +12353,7 @@
         <v>6.9444444444444364E-2</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12369,12 +12369,12 @@
         <v>7.638888888888884E-2</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="2">
         <v>0.45833333333333331</v>
@@ -12387,12 +12387,12 @@
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="2">
         <v>0.4513888888888889</v>
@@ -12405,7 +12405,7 @@
         <v>9.0277777777777735E-2</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12421,7 +12421,7 @@
         <v>0.15277777777777779</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12436,12 +12436,12 @@
         <v>0.1388888888888889</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" s="2">
         <v>0.45833333333333331</v>
@@ -12454,7 +12454,7 @@
         <v>7.6388888888888895E-2</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12470,7 +12470,7 @@
         <v>8.7500000000000022E-2</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12486,12 +12486,12 @@
         <v>4.5138888888888951E-2</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C38" s="2">
         <v>0.50277777777777777</v>
@@ -12504,12 +12504,12 @@
         <v>0.22638888888888886</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" s="2">
         <v>0.51041666666666663</v>
@@ -12522,7 +12522,7 @@
         <v>5.208333333333337E-2</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12538,7 +12538,7 @@
         <v>6.4583333333333215E-2</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12554,7 +12554,7 @@
         <v>1.1805555555555625E-2</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12570,12 +12570,12 @@
         <v>4.2361111111111072E-2</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C43" s="2">
         <v>0.70833333333333337</v>
@@ -12588,7 +12588,7 @@
         <v>0.11111111111111116</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12604,12 +12604,12 @@
         <v>3.0555555555555558E-2</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C45" s="2">
         <v>6.9444444444444441E-3</v>
@@ -12622,7 +12622,7 @@
         <v>4.6527777777777779E-2</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12638,7 +12638,7 @@
         <v>6.944444444444442E-2</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12654,7 +12654,7 @@
         <v>5.4166666666666585E-2</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12670,7 +12670,7 @@
         <v>5.6944444444444464E-2</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12686,12 +12686,12 @@
         <v>8.2638888888888928E-2</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
@@ -12704,7 +12704,7 @@
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12720,7 +12720,7 @@
         <v>4.1666666666666685E-2</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12736,12 +12736,12 @@
         <v>0.14444444444444438</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C53" s="2">
         <v>0.46180555555555558</v>
@@ -12754,7 +12754,7 @@
         <v>6.4583333333333326E-2</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12770,12 +12770,12 @@
         <v>5.555555555555558E-2</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C55" s="2">
         <v>0.41666666666666669</v>
@@ -12788,7 +12788,7 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12804,7 +12804,7 @@
         <v>7.638888888888884E-2</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12820,7 +12820,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12836,7 +12836,7 @@
         <v>5.2777777777777812E-2</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12852,12 +12852,12 @@
         <v>3.4027777777777768E-2</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C60" s="2">
         <v>0.94305555555555554</v>
@@ -12870,12 +12870,12 @@
         <v>9.7222222222222987E-3</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C61" s="2">
         <v>0.59722222222222221</v>
@@ -12888,12 +12888,12 @@
         <v>0.19444444444444442</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C62" s="2">
         <v>0.5</v>
@@ -12906,12 +12906,12 @@
         <v>9.722222222222221E-2</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C63" s="2">
         <v>0.63888888888888895</v>
@@ -12924,12 +12924,12 @@
         <v>0.13194444444444442</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C64" s="2">
         <v>0.64583333333333337</v>
@@ -12942,7 +12942,7 @@
         <v>2.777777777777779E-2</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12958,12 +12958,12 @@
         <v>5.555555555555558E-2</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C66" s="2">
         <v>0.77430555555555547</v>
@@ -12976,7 +12976,7 @@
         <v>3.8194444444444531E-2</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12992,12 +12992,12 @@
         <v>2.7777777777777901E-2</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="45.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C68" s="2">
         <v>0.61458333333333337</v>
@@ -13010,12 +13010,12 @@
         <v>0.14583333333333326</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="2">
         <v>0.54166666666666663</v>
@@ -13028,12 +13028,12 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C70" s="2">
         <v>0.45833333333333331</v>
@@ -13046,7 +13046,7 @@
         <v>0.13194444444444448</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13062,12 +13062,12 @@
         <v>0.15208333333333335</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C72" s="2">
         <v>0.4201388888888889</v>
@@ -13080,7 +13080,7 @@
         <v>0.10069444444444448</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13096,12 +13096,12 @@
         <v>0.11805555555555547</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C74" s="2">
         <v>0.47916666666666669</v>
@@ -13114,7 +13114,7 @@
         <v>0.1604166666666666</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13130,7 +13130,7 @@
         <v>2.5000000000000022E-2</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13146,12 +13146,12 @@
         <v>4.6527777777777835E-2</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="77" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C77" s="2">
         <v>0.4513888888888889</v>
@@ -13164,7 +13164,7 @@
         <v>0.10625000000000001</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13180,12 +13180,12 @@
         <v>0.10416666666666652</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C79" s="2">
         <v>0.42777777777777781</v>
@@ -13198,7 +13198,7 @@
         <v>3.4027777777777768E-2</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13214,12 +13214,12 @@
         <v>9.722222222222221E-2</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="81" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C81" s="2">
         <v>0.60416666666666663</v>
@@ -13232,12 +13232,12 @@
         <v>0.12777777777777777</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="82" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C82" s="2">
         <v>0.70833333333333337</v>
@@ -13250,7 +13250,7 @@
         <v>1.388888888888884E-2</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13266,7 +13266,7 @@
         <v>1.5972222222222165E-2</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13282,12 +13282,12 @@
         <v>9.375E-2</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="85" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C85" s="2">
         <v>0.45763888888888887</v>
@@ -13300,7 +13300,7 @@
         <v>9.2361111111111061E-2</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13316,7 +13316,7 @@
         <v>5.6944444444444464E-2</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13332,7 +13332,7 @@
         <v>0.11319444444444438</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13348,12 +13348,12 @@
         <v>5.0694444444444375E-2</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="89" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C89" s="2">
         <v>0.4513888888888889</v>
@@ -13366,7 +13366,7 @@
         <v>9.8611111111111038E-2</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="90" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13382,7 +13382,7 @@
         <v>6.9444444444444309E-2</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="91" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13398,12 +13398,12 @@
         <v>6.25E-2</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C92" s="2">
         <v>0.47916666666666669</v>
@@ -13416,7 +13416,7 @@
         <v>2.0833333333333315E-2</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13432,7 +13432,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="94" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13448,12 +13448,12 @@
         <v>6.8055555555555536E-2</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C95" s="2">
         <v>0.625</v>
@@ -13466,12 +13466,12 @@
         <v>0.14583333333333337</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C96" s="2">
         <v>0.77361111111111114</v>
@@ -13484,7 +13484,7 @@
         <v>1.8055555555555491E-2</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="97" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13500,12 +13500,12 @@
         <v>1.5972222222222276E-2</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="98" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C98" s="2">
         <v>0.5625</v>
@@ -13518,7 +13518,7 @@
         <v>2.777777777777779E-2</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="99" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13534,7 +13534,7 @@
         <v>0.125</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13550,12 +13550,12 @@
         <v>9.5833333333333437E-2</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="101" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C101" s="2">
         <v>0.42708333333333331</v>
@@ -13568,12 +13568,12 @@
         <v>8.3333333333333315E-2</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="102" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B102" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C102" s="2">
         <v>0.65972222222222221</v>
@@ -13586,7 +13586,7 @@
         <v>2.0833333333333259E-2</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="103" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13602,12 +13602,12 @@
         <v>0.10416666666666674</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="104" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C104" s="2">
         <v>0.43888888888888888</v>
@@ -13620,12 +13620,12 @@
         <v>4.0277777777777801E-2</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="105" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B105" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C105" s="2">
         <v>0.52083333333333337</v>
@@ -13638,7 +13638,7 @@
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="106" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13654,7 +13654,7 @@
         <v>0.19513888888888897</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="107" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13670,12 +13670,12 @@
         <v>2.7777777777777679E-2</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="108" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C108" s="2">
         <v>0.44513888888888892</v>
@@ -13688,7 +13688,7 @@
         <v>3.7499999999999978E-2</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="109" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13704,7 +13704,7 @@
         <v>0.10416666666666674</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="110" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13720,12 +13720,12 @@
         <v>6.9444444444444531E-2</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="111" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C111" s="2">
         <v>0.59027777777777779</v>
@@ -13738,7 +13738,7 @@
         <v>7.638888888888884E-2</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="112" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13754,12 +13754,12 @@
         <v>5.6250000000000022E-2</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="113" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C113" s="2">
         <v>0.75694444444444453</v>
@@ -13772,7 +13772,7 @@
         <v>2.0833333333333259E-2</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="114" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13788,12 +13788,12 @@
         <v>3.9583333333333304E-2</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="115" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C115" s="2">
         <v>0.58333333333333337</v>
@@ -13806,7 +13806,7 @@
         <v>2.0833333333333259E-2</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13822,7 +13822,7 @@
         <v>2.7777777777777901E-2</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="117" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13838,12 +13838,12 @@
         <v>0.13333333333333341</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="118" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C118" s="2">
         <v>0.53541666666666665</v>
@@ -13856,7 +13856,7 @@
         <v>4.7916666666666718E-2</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="119" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13872,7 +13872,7 @@
         <v>0.14583333333333326</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="120" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13888,12 +13888,12 @@
         <v>5.6944444444444464E-2</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="121" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C121" s="2">
         <v>0.61805555555555558</v>
@@ -13906,7 +13906,7 @@
         <v>4.166666666666663E-2</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="122" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13922,7 +13922,7 @@
         <v>4.166666666666663E-2</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="123" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13938,12 +13938,12 @@
         <v>6.6666666666666652E-2</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="124" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C124" s="2">
         <v>0.58333333333333337</v>
@@ -13956,7 +13956,7 @@
         <v>0.16666666666666663</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="125" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13972,12 +13972,12 @@
         <v>0.10833333333333339</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="126" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C126" s="2">
         <v>0.77777777777777779</v>
@@ -13990,7 +13990,7 @@
         <v>3.6805555555555536E-2</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="127" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14006,12 +14006,12 @@
         <v>5.2777777777777701E-2</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="128" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C128" s="2">
         <v>0.48055555555555557</v>
@@ -14024,7 +14024,7 @@
         <v>2.6388888888888851E-2</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="129" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14040,12 +14040,12 @@
         <v>5.9722222222222232E-2</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="130" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C130" s="2">
         <v>0.46527777777777773</v>
@@ -14058,7 +14058,7 @@
         <v>5.5555555555555636E-2</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="131" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14074,7 +14074,7 @@
         <v>4.0972222222222077E-2</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="132" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14090,12 +14090,12 @@
         <v>0.1034722222222223</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="133" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C133" s="2">
         <v>0.47222222222222227</v>
@@ -14108,7 +14108,7 @@
         <v>2.7777777777777735E-2</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="134" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14124,12 +14124,12 @@
         <v>7.6388888888888951E-2</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="135" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C135" s="2">
         <v>0.66319444444444442</v>
@@ -14142,7 +14142,7 @@
         <v>1.7361111111111049E-2</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="136" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14158,12 +14158,12 @@
         <v>3.472222222222221E-2</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="137" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C137" s="2">
         <v>0.56736111111111109</v>
@@ -14176,7 +14176,7 @@
         <v>3.819444444444442E-2</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="138" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14192,12 +14192,12 @@
         <v>3.4027777777777768E-2</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="139" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C139" s="2">
         <v>0.43055555555555558</v>
@@ -14210,7 +14210,7 @@
         <v>2.7777777777777735E-2</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="140" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14226,7 +14226,7 @@
         <v>9.0277777777778567E-3</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="141" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14242,7 +14242,7 @@
         <v>6.1111111111111005E-2</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="142" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14258,12 +14258,12 @@
         <v>2.2916666666666696E-2</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="143" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C143" s="2">
         <v>0.5</v>
@@ -14276,7 +14276,7 @@
         <v>2.083333333333337E-2</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="144" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14292,7 +14292,7 @@
         <v>2.8472222222222232E-2</v>
       </c>
       <c r="F144" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="145" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14308,12 +14308,12 @@
         <v>4.2361111111111072E-2</v>
       </c>
       <c r="F145" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="146" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C146" s="2">
         <v>0.60277777777777775</v>
@@ -14326,7 +14326,7 @@
         <v>2.2222222222222254E-2</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="147" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14342,7 +14342,7 @@
         <v>2.4305555555555469E-2</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14358,12 +14358,12 @@
         <v>2.5694444444444464E-2</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C149" s="2">
         <v>0.44513888888888892</v>
@@ -14376,7 +14376,7 @@
         <v>6.2499999999999944E-2</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="150" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14392,12 +14392,12 @@
         <v>7.8472222222222276E-2</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="151" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C151" s="2">
         <v>0.51388888888888895</v>
@@ -14410,7 +14410,7 @@
         <v>1.8749999999999933E-2</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="152" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14426,12 +14426,12 @@
         <v>5.6944444444444464E-2</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="153" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B153" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C153" s="2">
         <v>0.51597222222222217</v>
@@ -14444,7 +14444,7 @@
         <v>1.8750000000000044E-2</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="154" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14460,7 +14460,7 @@
         <v>7.7777777777777835E-2</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="155" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14476,12 +14476,12 @@
         <v>2.3611111111111138E-2</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="156" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B156" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C156" s="2">
         <v>0.47152777777777777</v>
@@ -14494,7 +14494,7 @@
         <v>8.8194444444444464E-2</v>
       </c>
       <c r="F156" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="157" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14510,12 +14510,12 @@
         <v>2.7777777777777901E-2</v>
       </c>
       <c r="F157" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="158" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B158" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C158" s="2">
         <v>0.87222222222222223</v>
@@ -14528,12 +14528,12 @@
         <v>2.5694444444444464E-2</v>
       </c>
       <c r="F158" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="159" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C159" s="2">
         <v>0.5083333333333333</v>
@@ -14546,7 +14546,7 @@
         <v>2.7083333333333348E-2</v>
       </c>
       <c r="F159" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="160" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14562,7 +14562,7 @@
         <v>1.5972222222222276E-2</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="161" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14578,7 +14578,7 @@
         <v>2.5000000000000133E-2</v>
       </c>
       <c r="F161" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="162" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14594,12 +14594,12 @@
         <v>2.3611111111111027E-2</v>
       </c>
       <c r="F162" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="163" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B163" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C163" s="2">
         <v>0.47083333333333338</v>
@@ -14612,7 +14612,7 @@
         <v>6.458333333333327E-2</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="164" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14628,12 +14628,12 @@
         <v>0.11736111111111103</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="165" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B165" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C165" s="2">
         <v>0.59722222222222221</v>
@@ -14646,7 +14646,7 @@
         <v>0.15277777777777779</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="166" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14662,12 +14662,12 @@
         <v>5.8333333333333237E-2</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="167" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B167" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C167" s="2">
         <v>0.65347222222222223</v>
@@ -14680,7 +14680,7 @@
         <v>1.3194444444444398E-2</v>
       </c>
       <c r="F167" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="168" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14696,7 +14696,7 @@
         <v>6.5277777777777768E-2</v>
       </c>
       <c r="F168" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="169" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14712,12 +14712,12 @@
         <v>4.5833333333333393E-2</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="170" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B170" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C170" s="2">
         <v>0.83333333333333337</v>
@@ -14730,12 +14730,12 @@
         <v>9.7222222222222099E-2</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="171" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B171" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C171" s="2">
         <v>0.61736111111111114</v>
@@ -14748,7 +14748,7 @@
         <v>8.4027777777777701E-2</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="172" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14764,7 +14764,7 @@
         <v>5.3472222222222254E-2</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="173" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14780,12 +14780,12 @@
         <v>7.5694444444444398E-2</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="174" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B174" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C174" s="2">
         <v>6.9444444444444447E-4</v>
@@ -14798,7 +14798,7 @@
         <v>9.7222222222222224E-3</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="175" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14814,7 +14814,7 @@
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="176" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14830,12 +14830,12 @@
         <v>0.1284722222222221</v>
       </c>
       <c r="F176" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="177" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B177" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C177" s="2">
         <v>0.54166666666666663</v>
@@ -14848,7 +14848,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="178" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14864,12 +14864,12 @@
         <v>6.7361111111111205E-2</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="179" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B179" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C179" s="2">
         <v>0.50208333333333333</v>
@@ -14882,7 +14882,7 @@
         <v>3.6805555555555536E-2</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="180" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14898,12 +14898,12 @@
         <v>4.0277777777777857E-2</v>
       </c>
       <c r="F180" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="181" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B181" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C181" s="2">
         <v>0.4861111111111111</v>
@@ -14916,7 +14916,7 @@
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="182" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14932,12 +14932,12 @@
         <v>0.11388888888888893</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="183" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B183" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C183" s="2">
         <v>0.45833333333333331</v>
@@ -14950,7 +14950,7 @@
         <v>4.1666666666666685E-2</v>
       </c>
       <c r="F183" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="184" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14966,7 +14966,7 @@
         <v>6.597222222222221E-2</v>
       </c>
       <c r="F184" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="185" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14982,12 +14982,12 @@
         <v>4.166666666666663E-2</v>
       </c>
       <c r="F185" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="186" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B186" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C186" s="2">
         <v>0.67499999999999993</v>
@@ -15000,12 +15000,12 @@
         <v>5.9722222222222232E-2</v>
       </c>
       <c r="F186" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="187" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B187" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C187" s="2">
         <v>0.65486111111111112</v>
@@ -15018,12 +15018,12 @@
         <v>1.8750000000000044E-2</v>
       </c>
       <c r="F187" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="188" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B188" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C188" s="2">
         <v>0.84027777777777779</v>
@@ -15036,12 +15036,12 @@
         <v>5.8333333333333348E-2</v>
       </c>
       <c r="F188" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="189" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B189" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C189" s="2">
         <v>0.49305555555555558</v>
@@ -15054,7 +15054,7 @@
         <v>3.472222222222221E-2</v>
       </c>
       <c r="F189" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="190" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15070,7 +15070,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="F190" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="191" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15086,12 +15086,12 @@
         <v>7.4305555555555403E-2</v>
       </c>
       <c r="F191" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="192" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B192" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C192" s="2">
         <v>0.44375000000000003</v>
@@ -15104,7 +15104,7 @@
         <v>4.9305555555555547E-2</v>
       </c>
       <c r="F192" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="193" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15120,7 +15120,7 @@
         <v>2.6388888888888795E-2</v>
       </c>
       <c r="F193" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="194" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15136,12 +15136,12 @@
         <v>6.3888888888888995E-2</v>
       </c>
       <c r="F194" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="195" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B195" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C195" s="2">
         <v>0.43055555555555558</v>
@@ -15154,7 +15154,7 @@
         <v>5.0694444444444431E-2</v>
       </c>
       <c r="F195" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="196" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15170,7 +15170,7 @@
         <v>0.10416666666666674</v>
       </c>
       <c r="F196" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="197" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15186,12 +15186,12 @@
         <v>3.4027777777777768E-2</v>
       </c>
       <c r="F197" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="198" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B198" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C198" s="2">
         <v>0.43541666666666662</v>
@@ -15204,7 +15204,7 @@
         <v>5.208333333333337E-2</v>
       </c>
       <c r="F198" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="199" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15220,12 +15220,12 @@
         <v>0.10486111111111107</v>
       </c>
       <c r="F199" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="200" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B200" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C200" s="2">
         <v>0.74722222222222223</v>
@@ -15238,7 +15238,7 @@
         <v>9.7222222222222987E-3</v>
       </c>
       <c r="F200" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="201" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15254,7 +15254,7 @@
         <v>1.1805555555555625E-2</v>
       </c>
       <c r="F201" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="202" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15270,12 +15270,12 @@
         <v>4.7222222222222165E-2</v>
       </c>
       <c r="F202" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="203" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B203" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C203" s="2">
         <v>0.46319444444444446</v>
@@ -15288,7 +15288,7 @@
         <v>5.7638888888888906E-2</v>
       </c>
       <c r="F203" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="204" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15304,12 +15304,12 @@
         <v>6.944444444444442E-2</v>
       </c>
       <c r="F204" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="205" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B205" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C205" s="2">
         <v>0.43472222222222223</v>
@@ -15322,7 +15322,7 @@
         <v>0.14861111111111114</v>
       </c>
       <c r="F205" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="206" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15338,12 +15338,12 @@
         <v>0.1645833333333333</v>
       </c>
       <c r="F206" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="207" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B207" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C207" s="2">
         <v>0.55069444444444449</v>
@@ -15356,7 +15356,7 @@
         <v>2.1527777777777701E-2</v>
       </c>
       <c r="F207" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="208" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15372,12 +15372,12 @@
         <v>0.13888888888888884</v>
       </c>
       <c r="F208" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="209" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B209" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C209" s="2">
         <v>0.41666666666666669</v>
@@ -15390,7 +15390,7 @@
         <v>9.0277777777777735E-2</v>
       </c>
       <c r="F209" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="210" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15406,7 +15406,7 @@
         <v>6.1805555555555558E-2</v>
       </c>
       <c r="F210" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="211" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15422,12 +15422,12 @@
         <v>0.14722222222222225</v>
       </c>
       <c r="F211" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="212" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B212" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C212" s="2">
         <v>0.85625000000000007</v>
@@ -15440,12 +15440,12 @@
         <v>7.2222222222222188E-2</v>
       </c>
       <c r="F212" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="213" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B213" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C213" s="2">
         <v>0.45694444444444443</v>
@@ -15458,7 +15458,7 @@
         <v>0.12708333333333338</v>
       </c>
       <c r="F213" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="214" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15474,7 +15474,7 @@
         <v>4.7222222222222276E-2</v>
       </c>
       <c r="F214" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="215" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15490,12 +15490,12 @@
         <v>4.6527777777777835E-2</v>
       </c>
       <c r="F215" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="216" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B216" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C216" s="2">
         <v>0.52083333333333337</v>
@@ -15508,7 +15508,7 @@
         <v>9.0972222222222232E-2</v>
       </c>
       <c r="F216" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="217" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15524,12 +15524,12 @@
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="F217" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="218" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B218" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C218" s="2">
         <v>0.52083333333333337</v>
@@ -15542,7 +15542,7 @@
         <v>2.0833333333333259E-2</v>
       </c>
       <c r="F218" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="219" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15558,12 +15558,12 @@
         <v>9.4444444444444331E-2</v>
       </c>
       <c r="F219" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="220" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B220" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C220" s="2">
         <v>0.73263888888888884</v>
@@ -15576,7 +15576,7 @@
         <v>2.4305555555555691E-2</v>
       </c>
       <c r="F220" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="221" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15592,12 +15592,12 @@
         <v>6.25E-2</v>
       </c>
       <c r="F221" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="222" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B222" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C222" s="2">
         <v>0.69444444444444453</v>
@@ -15610,7 +15610,7 @@
         <v>2.7777777777777679E-2</v>
       </c>
       <c r="F222" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="223" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15626,12 +15626,12 @@
         <v>3.472222222222221E-2</v>
       </c>
       <c r="F223" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="224" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B224" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C224" s="2">
         <v>0.71736111111111101</v>
@@ -15644,7 +15644,7 @@
         <v>1.1805555555555625E-2</v>
       </c>
       <c r="F224" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="225" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15660,12 +15660,12 @@
         <v>3.6111111111111094E-2</v>
       </c>
       <c r="F225" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="226" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B226" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C226" s="2">
         <v>0.52083333333333337</v>
@@ -15678,7 +15678,7 @@
         <v>4.5833333333333282E-2</v>
       </c>
       <c r="F226" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="227" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15694,12 +15694,12 @@
         <v>9.6527777777777768E-2</v>
       </c>
       <c r="F227" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="228" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B228" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C228" s="2">
         <v>0.50555555555555554</v>
@@ -15712,7 +15712,7 @@
         <v>6.8055555555555647E-2</v>
       </c>
       <c r="F228" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="229" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15728,7 +15728,7 @@
         <v>1.5972222222222165E-2</v>
       </c>
       <c r="F229" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="230" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15744,7 +15744,7 @@
         <v>7.7083333333333393E-2</v>
       </c>
       <c r="F230" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="231" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15760,12 +15760,12 @@
         <v>1.9444444444444486E-2</v>
       </c>
       <c r="F231" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="232" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B232" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C232" s="2">
         <v>0.56041666666666667</v>
@@ -15778,12 +15778,12 @@
         <v>0.11944444444444446</v>
       </c>
       <c r="F232" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="233" spans="2:6" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B233" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C233" s="2">
         <v>0.45347222222222222</v>
@@ -15796,7 +15796,7 @@
         <v>4.0972222222222243E-2</v>
       </c>
       <c r="F233" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="234" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15812,7 +15812,7 @@
         <v>2.2916666666666696E-2</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="235" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15828,7 +15828,7 @@
         <v>2.9166666666666674E-2</v>
       </c>
       <c r="F235" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="236" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15844,12 +15844,12 @@
         <v>4.3055555555555625E-2</v>
       </c>
       <c r="F236" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="237" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B237" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C237" s="2">
         <v>0.61388888888888882</v>
@@ -15862,12 +15862,12 @@
         <v>6.2500000000000111E-2</v>
       </c>
       <c r="F237" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="238" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B238" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C238" s="2">
         <v>0.5541666666666667</v>
@@ -15880,7 +15880,7 @@
         <v>2.9166666666666674E-2</v>
       </c>
       <c r="F238" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="239" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15896,12 +15896,12 @@
         <v>6.2500000000000888E-3</v>
       </c>
       <c r="F239" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="240" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B240" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C240" s="2">
         <v>0.44930555555555557</v>
@@ -15914,12 +15914,12 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="F240" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="241" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B241" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C241" s="2">
         <v>0.6875</v>
@@ -15932,7 +15932,7 @@
         <v>6.1111111111111005E-2</v>
       </c>
       <c r="F241" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="242" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15948,12 +15948,12 @@
         <v>6.597222222222221E-2</v>
       </c>
       <c r="F242" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="243" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B243" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C243" s="2">
         <v>0.60069444444444442</v>
@@ -15966,7 +15966,7 @@
         <v>0.11041666666666672</v>
       </c>
       <c r="F243" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="244" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15982,12 +15982,12 @@
         <v>8.4027777777777701E-2</v>
       </c>
       <c r="F244" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="245" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B245" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C245" s="2">
         <v>0.86319444444444438</v>
@@ -16000,12 +16000,12 @@
         <v>6.25E-2</v>
       </c>
       <c r="F245" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="246" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B246" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C246" s="2">
         <v>0.44166666666666665</v>
@@ -16018,7 +16018,7 @@
         <v>9.7222222222222432E-3</v>
       </c>
       <c r="F246" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="247" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16034,12 +16034,12 @@
         <v>9.6527777777777768E-2</v>
       </c>
       <c r="F247" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="248" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B248" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C248" s="2">
         <v>0.4777777777777778</v>
@@ -16052,7 +16052,7 @@
         <v>3.5416666666666596E-2</v>
       </c>
       <c r="F248" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="249" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16068,12 +16068,12 @@
         <v>0.12708333333333333</v>
       </c>
       <c r="F249" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="250" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B250" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C250" s="2">
         <v>0.7402777777777777</v>
@@ -16086,7 +16086,7 @@
         <v>2.7777777777777901E-2</v>
       </c>
       <c r="F250" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="251" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16102,12 +16102,12 @@
         <v>1.736111111111116E-2</v>
       </c>
       <c r="F251" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="252" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B252" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C252" s="2">
         <v>0.47430555555555554</v>
@@ -16120,7 +16120,7 @@
         <v>2.777777777777779E-2</v>
       </c>
       <c r="F252" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="253" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16136,7 +16136,7 @@
         <v>4.0972222222222188E-2</v>
       </c>
       <c r="F253" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="254" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16152,7 +16152,7 @@
         <v>0.10277777777777775</v>
       </c>
       <c r="F254" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="255" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16168,12 +16168,12 @@
         <v>8.0555555555555491E-2</v>
       </c>
       <c r="F255" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="256" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B256" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C256" s="2">
         <v>0.47152777777777777</v>
@@ -16186,7 +16186,7 @@
         <v>0.1069444444444444</v>
       </c>
       <c r="F256" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="257" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16202,7 +16202,7 @@
         <v>5.4166666666666696E-2</v>
       </c>
       <c r="F257" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="258" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16218,7 +16218,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="F258" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="259" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16234,12 +16234,12 @@
         <v>4.5833333333333393E-2</v>
       </c>
       <c r="F259" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="260" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B260" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C260" s="2">
         <v>0.4694444444444445</v>
@@ -16252,7 +16252,7 @@
         <v>2.2222222222222199E-2</v>
       </c>
       <c r="F260" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="261" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16268,7 +16268,7 @@
         <v>0.12986111111111109</v>
       </c>
       <c r="F261" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="262" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16284,12 +16284,12 @@
         <v>2.9166666666666785E-2</v>
       </c>
       <c r="F262" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="263" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B263" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C263" s="2">
         <v>0.45208333333333334</v>
@@ -16302,7 +16302,7 @@
         <v>6.1805555555555614E-2</v>
       </c>
       <c r="F263" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="264" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16318,7 +16318,7 @@
         <v>7.638888888888884E-2</v>
       </c>
       <c r="F264" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="265" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16334,12 +16334,12 @@
         <v>5.7638888888888906E-2</v>
       </c>
       <c r="F265" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="266" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B266" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C266" s="2">
         <v>0.44375000000000003</v>
@@ -16352,7 +16352,7 @@
         <v>3.4722222222222154E-2</v>
       </c>
       <c r="F266" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="267" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16368,7 +16368,7 @@
         <v>7.6388888888888618E-3</v>
       </c>
       <c r="F267" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="268" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16384,12 +16384,12 @@
         <v>5.7638888888888795E-2</v>
       </c>
       <c r="F268" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="269" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B269" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C269" s="2">
         <v>0.91666666666666663</v>
@@ -16402,12 +16402,12 @@
         <v>2.083333333333337E-2</v>
       </c>
       <c r="F269" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="270" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B270" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C270" s="2">
         <v>0.5805555555555556</v>
@@ -16420,7 +16420,7 @@
         <v>0.12708333333333333</v>
       </c>
       <c r="F270" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="271" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16436,12 +16436,12 @@
         <v>2.8472222222222232E-2</v>
       </c>
       <c r="F271" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="272" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B272" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C272" s="2">
         <v>0.47916666666666669</v>
@@ -16454,7 +16454,7 @@
         <v>6.6666666666666596E-2</v>
       </c>
       <c r="F272" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="273" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16470,12 +16470,12 @@
         <v>0.16249999999999998</v>
       </c>
       <c r="F273" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="274" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B274" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C274" s="2">
         <v>0.45833333333333331</v>
@@ -16488,12 +16488,12 @@
         <v>7.1527777777777801E-2</v>
       </c>
       <c r="F274" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="275" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B275" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C275" s="2">
         <v>0.54166666666666663</v>
@@ -16506,12 +16506,12 @@
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="F275" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="276" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B276" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C276" s="2">
         <v>0.44444444444444442</v>
@@ -16524,7 +16524,7 @@
         <v>9.722222222222221E-2</v>
       </c>
       <c r="F276" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="277" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16540,12 +16540,12 @@
         <v>4.2361111111111183E-2</v>
       </c>
       <c r="F277" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="278" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B278" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C278" s="2">
         <v>0.70833333333333337</v>
@@ -16558,7 +16558,7 @@
         <v>4.861111111111116E-2</v>
       </c>
       <c r="F278" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="279" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16574,12 +16574,12 @@
         <v>6.8055555555555536E-2</v>
       </c>
       <c r="F279" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="280" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B280" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C280" s="2">
         <v>0.45069444444444445</v>
@@ -16592,7 +16592,7 @@
         <v>7.0833333333333359E-2</v>
       </c>
       <c r="F280" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="281" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16608,7 +16608,7 @@
         <v>0.1694444444444444</v>
       </c>
       <c r="F281" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="282" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16624,12 +16624,12 @@
         <v>7.1527777777777857E-2</v>
       </c>
       <c r="F282" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="283" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B283" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C283" s="2">
         <v>0.45833333333333331</v>
@@ -16642,7 +16642,7 @@
         <v>1.0416666666666685E-2</v>
       </c>
       <c r="F283" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="284" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16658,12 +16658,12 @@
         <v>8.4027777777777812E-2</v>
       </c>
       <c r="F284" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="285" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B285" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C285" s="2">
         <v>0.6166666666666667</v>
@@ -16676,7 +16676,7 @@
         <v>8.4027777777777701E-2</v>
       </c>
       <c r="F285" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="286" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16692,7 +16692,7 @@
         <v>9.7222222222222987E-3</v>
       </c>
       <c r="F286" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="287" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16708,12 +16708,12 @@
         <v>9.375E-2</v>
       </c>
       <c r="F287" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="288" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B288" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C288" s="2">
         <v>0.37708333333333338</v>
@@ -16726,7 +16726,7 @@
         <v>1.8749999999999933E-2</v>
       </c>
       <c r="F288" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="289" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16742,7 +16742,7 @@
         <v>2.083333333333337E-2</v>
       </c>
       <c r="F289" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="290" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16758,7 +16758,7 @@
         <v>2.5694444444444464E-2</v>
       </c>
       <c r="F290" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="291" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16774,12 +16774,12 @@
         <v>7.4305555555555403E-2</v>
       </c>
       <c r="F291" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="292" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B292" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C292" s="2">
         <v>0.51388888888888895</v>
@@ -16792,7 +16792,7 @@
         <v>3.4722222222222099E-2</v>
       </c>
       <c r="F292" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="293" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16808,7 +16808,7 @@
         <v>5.4166666666666696E-2</v>
       </c>
       <c r="F293" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="294" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16824,12 +16824,12 @@
         <v>5.9722222222222232E-2</v>
       </c>
       <c r="F294" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="295" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B295" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C295" s="2">
         <v>0.6875</v>
@@ -16842,7 +16842,7 @@
         <v>7.7777777777777835E-2</v>
       </c>
       <c r="F295" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="296" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16858,12 +16858,12 @@
         <v>6.1111111111111227E-2</v>
       </c>
       <c r="F296" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="297" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B297" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C297" s="2">
         <v>0.43402777777777773</v>
@@ -16876,7 +16876,7 @@
         <v>5.4166666666666696E-2</v>
       </c>
       <c r="F297" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="298" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16892,7 +16892,7 @@
         <v>1.0416666666666741E-2</v>
       </c>
       <c r="F298" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="299" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16908,7 +16908,7 @@
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="F299" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="300" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16924,12 +16924,12 @@
         <v>6.8055555555555536E-2</v>
       </c>
       <c r="F300" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="301" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B301" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C301" s="2">
         <v>0.45208333333333334</v>
@@ -16942,12 +16942,12 @@
         <v>9.930555555555548E-2</v>
       </c>
       <c r="F301" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="302" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B302" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C302" s="2">
         <v>0.24444444444444446</v>
@@ -16960,12 +16960,12 @@
         <v>1.9444444444444431E-2</v>
       </c>
       <c r="F302" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="303" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B303" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C303" s="2">
         <v>0.48749999999999999</v>
@@ -16978,7 +16978,7 @@
         <v>3.3333333333333381E-2</v>
       </c>
       <c r="F303" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="304" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16994,12 +16994,12 @@
         <v>4.166666666666663E-2</v>
       </c>
       <c r="F304" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="305" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B305" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C305" s="2">
         <v>0.47152777777777777</v>
@@ -17012,7 +17012,7 @@
         <v>4.9305555555555602E-2</v>
       </c>
       <c r="F305" s="8" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
     <row r="306" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17028,7 +17028,7 @@
         <v>0.11805555555555558</v>
       </c>
       <c r="F306" s="8" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
     <row r="307" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17044,12 +17044,12 @@
         <v>0.10416666666666663</v>
       </c>
       <c r="F307" s="8" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
     <row r="308" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B308" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C308" s="2">
         <v>0.45833333333333331</v>
@@ -17062,7 +17062,7 @@
         <v>6.9444444444444475E-2</v>
       </c>
       <c r="F308" s="8" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="309" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17078,7 +17078,7 @@
         <v>0.15277777777777768</v>
       </c>
       <c r="F309" s="8" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="310" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17094,12 +17094,12 @@
         <v>7.5000000000000067E-2</v>
       </c>
       <c r="F310" s="8" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
     </row>
     <row r="311" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B311" s="3" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C311" s="2">
         <v>0.5756944444444444</v>
@@ -17112,7 +17112,7 @@
         <v>0.17291666666666661</v>
       </c>
       <c r="F311" s="8" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="312" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17128,12 +17128,12 @@
         <v>0.14097222222222217</v>
       </c>
       <c r="F312" s="8" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="313" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B313" s="3" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C313" s="2">
         <v>0</v>
@@ -17146,7 +17146,7 @@
         <v>4.9305555555555554E-2</v>
       </c>
       <c r="F313" s="8" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="314" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17162,7 +17162,7 @@
         <v>6.9444444444444475E-2</v>
       </c>
       <c r="F314" s="8" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="315" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17178,7 +17178,7 @@
         <v>0.10763888888888895</v>
       </c>
       <c r="F315" s="8" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="316" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17194,7 +17194,7 @@
         <v>0.12361111111111101</v>
       </c>
       <c r="F316" s="8" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="317" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17520,15 +17520,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <VSO_x0020_item_x0020_id xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
@@ -17537,6 +17528,15 @@
     <Template_x0020_details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17559,26 +17559,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{885137DC-D143-4691-87B9-2812AFF1A34F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="40262f94-9f35-4ac3-9a90-690165a166b7"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a4f35948-e619-41b3-aa29-22878b09cfd2"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1934E82E-1C0E-415F-9886-064BC72C3B49}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{885137DC-D143-4691-87B9-2812AFF1A34F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="40262f94-9f35-4ac3-9a90-690165a166b7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a4f35948-e619-41b3-aa29-22878b09cfd2"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Daily Activits.xlsx
+++ b/Daily Activits.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="362">
   <si>
     <t>DATE</t>
   </si>
@@ -940,21 +940,12 @@
     <t>Added component to show associated hexagrams.</t>
   </si>
   <si>
-    <t>Febuary 3 2018</t>
-  </si>
-  <si>
     <t>Meeting with Spring to get new requirements and put them in the Github.</t>
   </si>
   <si>
-    <t>Febuary 4 2018</t>
-  </si>
-  <si>
     <t>Resolved #16</t>
   </si>
   <si>
-    <t>Febuary 5 2018</t>
-  </si>
-  <si>
     <t>Finised HexagramListContainer component.</t>
   </si>
   <si>
@@ -964,9 +955,6 @@
     <t>Fixed two bugs. Added test code for HexagramListContainer component.</t>
   </si>
   <si>
-    <t>Febuary 6 2018</t>
-  </si>
-  <si>
     <t>Added BigramSmallClock component as well as test code.</t>
   </si>
   <si>
@@ -976,15 +964,9 @@
     <t>Working on hexagram detail page.</t>
   </si>
   <si>
-    <t>Febuary 7 2018</t>
-  </si>
-  <si>
     <t>Finished hexagram detail page.</t>
   </si>
   <si>
-    <t>Febuary 9 2018</t>
-  </si>
-  <si>
     <t>Finished BigramClockBig component.</t>
   </si>
   <si>
@@ -994,15 +976,9 @@
     <t>Started making BigramBlockBig component.</t>
   </si>
   <si>
-    <t>Febuary 10 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve">Connected HexagramDetailModal with ReadingsContainer component. </t>
   </si>
   <si>
-    <t>Febuary 11 2018</t>
-  </si>
-  <si>
     <t>Refinement of the Hexagram Page.</t>
   </si>
   <si>
@@ -1012,18 +988,12 @@
     <t>Changed Navbar and started to add quartet bigrams to hexagram database.</t>
   </si>
   <si>
-    <t>Febuary 12 2018</t>
-  </si>
-  <si>
     <t>Adjust hexagram detail display page.</t>
   </si>
   <si>
     <t>Working on add Resonance Quartet Hexagrams.</t>
   </si>
   <si>
-    <t>Febuary 13 2018</t>
-  </si>
-  <si>
     <t>Finished adding resonance quartet hexagrams.</t>
   </si>
   <si>
@@ -1033,45 +1003,24 @@
     <t>Working on add line changing to hexagram.</t>
   </si>
   <si>
-    <t>Febuary 14 2018</t>
-  </si>
-  <si>
     <t>Finished add line changing.</t>
   </si>
   <si>
-    <t>Febuary 15 2018</t>
-  </si>
-  <si>
     <t>Changed some display text.</t>
   </si>
   <si>
-    <t>Febuary 16 2018</t>
-  </si>
-  <si>
     <t>Working on automatically update Resonance code name in HexagramDetailModal componnet.</t>
   </si>
   <si>
     <t>Finished automatically update Resonance code name in HexagramDetailModal componnet.</t>
   </si>
   <si>
-    <t>Febuary 17 2018</t>
-  </si>
-  <si>
-    <t>Febuary 18 2018</t>
-  </si>
-  <si>
-    <t>Febuary 19 2018</t>
-  </si>
-  <si>
     <t>Fixed some bugs that include hexagram detail modal display incorrectly on the small mobile screen, etc.</t>
   </si>
   <si>
     <t xml:space="preserve">Trying to implement code splitting with react-loadable labaary </t>
   </si>
   <si>
-    <t>Febuary 20 2018</t>
-  </si>
-  <si>
     <t>Researching customizing name for the chunk bundles.</t>
   </si>
   <si>
@@ -1094,6 +1043,75 @@
   </si>
   <si>
     <t>Improving the performance. Switched to http2</t>
+  </si>
+  <si>
+    <t>February 20 2018</t>
+  </si>
+  <si>
+    <t>February 19 2018</t>
+  </si>
+  <si>
+    <t>February 18 2018</t>
+  </si>
+  <si>
+    <t>February 17 2018</t>
+  </si>
+  <si>
+    <t>February 16 2018</t>
+  </si>
+  <si>
+    <t>February 15 2018</t>
+  </si>
+  <si>
+    <t>February 14 2018</t>
+  </si>
+  <si>
+    <t>February 13 2018</t>
+  </si>
+  <si>
+    <t>February 12 2018</t>
+  </si>
+  <si>
+    <t>February 11 2018</t>
+  </si>
+  <si>
+    <t>February 10 2018</t>
+  </si>
+  <si>
+    <t>February 9 2018</t>
+  </si>
+  <si>
+    <t>February 7 2018</t>
+  </si>
+  <si>
+    <t>February 6 2018</t>
+  </si>
+  <si>
+    <t>February 5 2018</t>
+  </si>
+  <si>
+    <t>February 4 2018</t>
+  </si>
+  <si>
+    <t>February 3 2018</t>
+  </si>
+  <si>
+    <t>February 22 2018</t>
+  </si>
+  <si>
+    <t>Changed add journal button's color. Added showing hexagram detail modal feature to search reading page.</t>
+  </si>
+  <si>
+    <t>February 23 2018</t>
+  </si>
+  <si>
+    <t>Starting to extract some code relates to show hexagram detail modal.</t>
+  </si>
+  <si>
+    <t>Finished refactoring for HexagramDetailModal.</t>
+  </si>
+  <si>
+    <t>February 24 2018</t>
   </si>
 </sst>
 </file>
@@ -11873,8 +11891,8 @@
   </sheetPr>
   <dimension ref="B1:F328"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A311" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F310" sqref="F310"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A305" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C320" sqref="C320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12086,7 +12104,7 @@
         <v>0.10763888888888895</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16493,7 +16511,7 @@
     </row>
     <row r="275" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B275" s="3" t="s">
-        <v>304</v>
+        <v>355</v>
       </c>
       <c r="C275" s="2">
         <v>0.54166666666666663</v>
@@ -16506,12 +16524,12 @@
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="F275" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="276" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B276" s="3" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="C276" s="2">
         <v>0.44444444444444442</v>
@@ -16524,7 +16542,7 @@
         <v>9.722222222222221E-2</v>
       </c>
       <c r="F276" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="277" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16540,12 +16558,12 @@
         <v>4.2361111111111183E-2</v>
       </c>
       <c r="F277" s="8" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="278" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B278" s="3" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="C278" s="2">
         <v>0.70833333333333337</v>
@@ -16558,7 +16576,7 @@
         <v>4.861111111111116E-2</v>
       </c>
       <c r="F278" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="279" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16574,12 +16592,12 @@
         <v>6.8055555555555536E-2</v>
       </c>
       <c r="F279" s="8" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="280" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B280" s="3" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="C280" s="2">
         <v>0.45069444444444445</v>
@@ -16592,7 +16610,7 @@
         <v>7.0833333333333359E-2</v>
       </c>
       <c r="F280" s="8" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="281" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16608,7 +16626,7 @@
         <v>0.1694444444444444</v>
       </c>
       <c r="F281" s="8" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="282" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16624,12 +16642,12 @@
         <v>7.1527777777777857E-2</v>
       </c>
       <c r="F282" s="8" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="283" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B283" s="3" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="C283" s="2">
         <v>0.45833333333333331</v>
@@ -16642,7 +16660,7 @@
         <v>1.0416666666666685E-2</v>
       </c>
       <c r="F283" s="8" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="284" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16658,12 +16676,12 @@
         <v>8.4027777777777812E-2</v>
       </c>
       <c r="F284" s="8" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="285" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B285" s="3" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="C285" s="2">
         <v>0.6166666666666667</v>
@@ -16676,7 +16694,7 @@
         <v>8.4027777777777701E-2</v>
       </c>
       <c r="F285" s="8" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="286" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16692,7 +16710,7 @@
         <v>9.7222222222222987E-3</v>
       </c>
       <c r="F286" s="8" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="287" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16708,12 +16726,12 @@
         <v>9.375E-2</v>
       </c>
       <c r="F287" s="8" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="288" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B288" s="3" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="C288" s="2">
         <v>0.37708333333333338</v>
@@ -16726,7 +16744,7 @@
         <v>1.8749999999999933E-2</v>
       </c>
       <c r="F288" s="8" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="289" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16742,7 +16760,7 @@
         <v>2.083333333333337E-2</v>
       </c>
       <c r="F289" s="8" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="290" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16758,7 +16776,7 @@
         <v>2.5694444444444464E-2</v>
       </c>
       <c r="F290" s="8" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="291" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16774,12 +16792,12 @@
         <v>7.4305555555555403E-2</v>
       </c>
       <c r="F291" s="8" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="292" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B292" s="3" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="C292" s="2">
         <v>0.51388888888888895</v>
@@ -16792,7 +16810,7 @@
         <v>3.4722222222222099E-2</v>
       </c>
       <c r="F292" s="8" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="293" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16808,7 +16826,7 @@
         <v>5.4166666666666696E-2</v>
       </c>
       <c r="F293" s="8" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="294" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16824,12 +16842,12 @@
         <v>5.9722222222222232E-2</v>
       </c>
       <c r="F294" s="8" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="295" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B295" s="3" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="C295" s="2">
         <v>0.6875</v>
@@ -16842,7 +16860,7 @@
         <v>7.7777777777777835E-2</v>
       </c>
       <c r="F295" s="8" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="296" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16858,12 +16876,12 @@
         <v>6.1111111111111227E-2</v>
       </c>
       <c r="F296" s="8" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="297" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B297" s="3" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="C297" s="2">
         <v>0.43402777777777773</v>
@@ -16876,7 +16894,7 @@
         <v>5.4166666666666696E-2</v>
       </c>
       <c r="F297" s="8" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="298" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16892,7 +16910,7 @@
         <v>1.0416666666666741E-2</v>
       </c>
       <c r="F298" s="8" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="299" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16908,7 +16926,7 @@
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="F299" s="8" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="300" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16924,12 +16942,12 @@
         <v>6.8055555555555536E-2</v>
       </c>
       <c r="F300" s="8" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="301" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B301" s="3" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="C301" s="2">
         <v>0.45208333333333334</v>
@@ -16942,12 +16960,12 @@
         <v>9.930555555555548E-2</v>
       </c>
       <c r="F301" s="8" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="302" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B302" s="3" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C302" s="2">
         <v>0.24444444444444446</v>
@@ -16960,12 +16978,12 @@
         <v>1.9444444444444431E-2</v>
       </c>
       <c r="F302" s="8" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
     </row>
     <row r="303" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B303" s="3" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C303" s="2">
         <v>0.48749999999999999</v>
@@ -16978,7 +16996,7 @@
         <v>3.3333333333333381E-2</v>
       </c>
       <c r="F303" s="8" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="304" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16994,7 +17012,7 @@
         <v>4.166666666666663E-2</v>
       </c>
       <c r="F304" s="8" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
     </row>
     <row r="305" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17012,7 +17030,7 @@
         <v>4.9305555555555602E-2</v>
       </c>
       <c r="F305" s="8" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
     </row>
     <row r="306" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17028,7 +17046,7 @@
         <v>0.11805555555555558</v>
       </c>
       <c r="F306" s="8" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
     </row>
     <row r="307" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17044,12 +17062,12 @@
         <v>0.10416666666666663</v>
       </c>
       <c r="F307" s="8" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
     </row>
     <row r="308" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B308" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C308" s="2">
         <v>0.45833333333333331</v>
@@ -17062,7 +17080,7 @@
         <v>6.9444444444444475E-2</v>
       </c>
       <c r="F308" s="8" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
     </row>
     <row r="309" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17078,7 +17096,7 @@
         <v>0.15277777777777768</v>
       </c>
       <c r="F309" s="8" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
     </row>
     <row r="310" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17094,12 +17112,12 @@
         <v>7.5000000000000067E-2</v>
       </c>
       <c r="F310" s="8" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
     </row>
     <row r="311" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B311" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C311" s="2">
         <v>0.5756944444444444</v>
@@ -17112,7 +17130,7 @@
         <v>0.17291666666666661</v>
       </c>
       <c r="F311" s="8" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="312" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17128,12 +17146,12 @@
         <v>0.14097222222222217</v>
       </c>
       <c r="F312" s="8" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
     </row>
     <row r="313" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B313" s="3" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C313" s="2">
         <v>0</v>
@@ -17146,7 +17164,7 @@
         <v>4.9305555555555554E-2</v>
       </c>
       <c r="F313" s="8" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
     </row>
     <row r="314" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17162,7 +17180,7 @@
         <v>6.9444444444444475E-2</v>
       </c>
       <c r="F314" s="8" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
     </row>
     <row r="315" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17178,7 +17196,7 @@
         <v>0.10763888888888895</v>
       </c>
       <c r="F315" s="8" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
     </row>
     <row r="316" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17194,46 +17212,72 @@
         <v>0.12361111111111101</v>
       </c>
       <c r="F316" s="8" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
     </row>
     <row r="317" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B317" s="3"/>
-      <c r="C317" s="2"/>
-      <c r="D317" s="2"/>
+      <c r="B317" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C317" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D317" s="2">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="E317" s="10">
         <f>Log[[#This Row],[EDN TIME]]-Log[[#This Row],[START TIME]]</f>
-        <v>0</v>
-      </c>
-      <c r="F317" s="4"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="F317" s="8" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="318" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B318" s="3"/>
-      <c r="C318" s="2"/>
-      <c r="D318" s="2"/>
+      <c r="B318" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C318" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D318" s="2">
+        <v>0.75</v>
+      </c>
       <c r="E318" s="10">
         <f>Log[[#This Row],[EDN TIME]]-Log[[#This Row],[START TIME]]</f>
-        <v>0</v>
-      </c>
-      <c r="F318" s="4"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="F318" s="8" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="319" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B319" s="3"/>
-      <c r="C319" s="2"/>
-      <c r="D319" s="2"/>
+      <c r="C319" s="2">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="D319" s="2">
+        <v>1.0326388888888889</v>
+      </c>
       <c r="E319" s="10">
         <f>Log[[#This Row],[EDN TIME]]-Log[[#This Row],[START TIME]]</f>
-        <v>0</v>
-      </c>
-      <c r="F319" s="4"/>
+        <v>0.17152777777777772</v>
+      </c>
+      <c r="F319" s="8" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="320" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B320" s="3"/>
-      <c r="C320" s="2"/>
+      <c r="B320" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C320" s="2">
+        <v>0.65763888888888888</v>
+      </c>
       <c r="D320" s="2"/>
       <c r="E320" s="10">
         <f>Log[[#This Row],[EDN TIME]]-Log[[#This Row],[START TIME]]</f>
-        <v>0</v>
+        <v>-0.65763888888888888</v>
       </c>
       <c r="F320" s="4"/>
     </row>
